--- a/Excels/Prtàctica 2.xlsx
+++ b/Excels/Prtàctica 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriamarin/Documents/Uni/2n/LaboratoriElectromagnetisme/Elecgit/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0C4419-37D9-3A4D-8EF3-1F39F8E2944E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A20B539-9752-944A-B5C1-CF644F0C2A9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" firstSheet="1" activeTab="2" xr2:uid="{F3ED2172-909D-A94D-B9BD-042FB95B2AEC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{F3ED2172-909D-A94D-B9BD-042FB95B2AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Força vs corrent" sheetId="1" r:id="rId1"/>
@@ -586,15 +586,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0478484-1AE2-6E4C-8D05-A066D7891E3D}">
   <dimension ref="B3:AA61"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
+    <sheetView topLeftCell="T20" zoomScale="125" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
@@ -1420,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA025AA-9183-9A46-95A3-7C9D34110A0C}">
   <dimension ref="B6:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,6 +1433,7 @@
     <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1823,7 +1828,7 @@
         <v>8.70175024467026E-9</v>
       </c>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
         <v>36</v>
       </c>
@@ -1831,14 +1836,18 @@
         <f>(J26*2*3.14159)/(K8*K9^2)</f>
         <v>2.9953166459604952E-6</v>
       </c>
-    </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <f>2*PI()*SQRT((J27/(K9^2*K8))^2+(2*0.01*J26/(K9^3*K8))^2+(0.01*J26/(K8^2*K9^2))^2)</f>
+        <v>4.1791017040303267E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K38">
         <f>4*PI()*10^-7</f>
         <v>1.2566370614359173E-6</v>
       </c>
     </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K39">
         <f>(K36-K38)/K36</f>
         <v>0.58046603749535908</v>
@@ -1853,7 +1862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127898E2-11A0-F549-B394-023F5458E994}">
   <dimension ref="C5:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
